--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Categories</t>
+  </si>
   <si>
     <t>Funding Source</t>
   </si>
@@ -37,10 +40,16 @@
     <t>Industry</t>
   </si>
   <si>
+    <t>DOE - other (incl. LDRD)</t>
+  </si>
+  <si>
     <t>DOD (incl.Air Force, Army, etc.)</t>
   </si>
   <si>
-    <t>DOE - other (incl. LDRD)</t>
+    <t>Howard Hughes Medical Institute (HHMI)</t>
+  </si>
+  <si>
+    <t>Other U.S. Government (incl. NIST, EPA, etc.)</t>
   </si>
 </sst>
 </file>
@@ -398,79 +407,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>901</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B7">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
